--- a/REGULAR/TREASURY/REPILLO AMMY LOU.xlsx
+++ b/REGULAR/TREASURY/REPILLO AMMY LOU.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B72FFA-6DA0-4E4F-835F-D7E81C4C54A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B223855-F8D2-45AB-8F6B-5FDB886B7B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -29,20 +29,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="102">
   <si>
     <t>PERIOD</t>
   </si>
@@ -339,6 +331,15 @@
   </si>
   <si>
     <t>8/10-12/2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>2/9,10/2023</t>
   </si>
 </sst>
 </file>
@@ -1031,7 +1032,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K131" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -1360,12 +1361,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K131"/>
+  <dimension ref="A2:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A84" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A87" activePane="bottomLeft"/>
       <selection activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="B91" sqref="B91"/>
+      <selection pane="bottomLeft" activeCell="K95" sqref="K95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1530,7 +1531,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>59.75</v>
+        <v>62.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1540,7 +1541,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>53.75</v>
+        <v>57.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3344,13 +3345,15 @@
         <v>44866</v>
       </c>
       <c r="B91" s="20"/>
-      <c r="C91" s="13"/>
+      <c r="C91" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G91" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
@@ -3358,15 +3361,19 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <v>44896</v>
+      </c>
       <c r="B92" s="20"/>
-      <c r="C92" s="13"/>
+      <c r="C92" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D92" s="39"/>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G92" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H92" s="39"/>
       <c r="I92" s="9"/>
@@ -3374,7 +3381,9 @@
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
+      <c r="A93" s="48" t="s">
+        <v>99</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -3390,39 +3399,61 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="13"/>
+      <c r="A94" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C94" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D94" s="39"/>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H94" s="39"/>
+      <c r="G94" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H94" s="39">
+        <v>1</v>
+      </c>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="20"/>
+      <c r="K94" s="49">
+        <v>44931</v>
+      </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="39"/>
+      <c r="A95" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C95" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D95" s="39">
+        <v>2</v>
+      </c>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
-      <c r="G95" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G95" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H95" s="39"/>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
+      <c r="K95" s="20" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>44986</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -3438,7 +3469,9 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>45017</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -3454,7 +3487,9 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <v>45047</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -3470,7 +3505,9 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>45078</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -3486,7 +3523,9 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
+      <c r="A100" s="40">
+        <v>45108</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -3502,7 +3541,9 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <v>45139</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -3518,7 +3559,9 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>45170</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -3534,7 +3577,9 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <v>45200</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -3550,7 +3595,9 @@
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="40"/>
+      <c r="A104" s="40">
+        <v>45231</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -3566,7 +3613,9 @@
       <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="40"/>
+      <c r="A105" s="40">
+        <v>45261</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -3582,7 +3631,9 @@
       <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="40"/>
+      <c r="A106" s="40">
+        <v>45292</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -3598,7 +3649,9 @@
       <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="40"/>
+      <c r="A107" s="40">
+        <v>45323</v>
+      </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -3982,20 +4035,36 @@
       <c r="K130" s="20"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="41"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="43"/>
+      <c r="A131" s="40"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="43"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="39"/>
       <c r="I131" s="9"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="15"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="41"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="43"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="43"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="12"/>
+      <c r="K132" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4011,7 +4080,7 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
@@ -4028,8 +4097,8 @@
     <oddFooter>&amp;L
 PREPARED BY: ___________________
 DATE: &amp;D, &amp;T&amp;C
-CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
-                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+CERTIFIED CORRECT BY: &amp;UNANETTE B. SUSA&amp;U
+                                             OIC - HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>

--- a/REGULAR/TREASURY/REPILLO AMMY LOU.xlsx
+++ b/REGULAR/TREASURY/REPILLO AMMY LOU.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\TREASURY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\TREASURY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B223855-F8D2-45AB-8F6B-5FDB886B7B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="107">
   <si>
     <t>PERIOD</t>
   </si>
@@ -340,12 +339,27 @@
   </si>
   <si>
     <t>2/9,10/2023</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>BDAY 4/3/23</t>
+  </si>
+  <si>
+    <t>ANNIV 4/4/23</t>
+  </si>
+  <si>
+    <t>FILIAL 4/5/23</t>
+  </si>
+  <si>
+    <t>4/11,12/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -986,7 +1000,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1032,25 +1045,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1357,34 +1370,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K132"/>
+  <dimension ref="A2:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A87" activePane="bottomLeft"/>
-      <selection activeCell="C6" sqref="C6"/>
-      <selection pane="bottomLeft" activeCell="K95" sqref="K95"/>
+      <pane ySplit="3690" topLeftCell="A87" activePane="bottomLeft"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1405,7 +1418,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1427,7 +1440,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1449,7 +1462,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1457,7 +1470,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1470,7 +1483,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1487,7 +1500,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1522,7 +1535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1531,7 +1544,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>62.75</v>
+        <v>62</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1541,12 +1554,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>57.75</v>
+        <v>59</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -1566,7 +1579,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
         <v>46</v>
       </c>
@@ -1584,7 +1597,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43101</v>
       </c>
@@ -1610,7 +1623,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43132</v>
       </c>
@@ -1634,7 +1647,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>47</v>
@@ -1656,7 +1669,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43160</v>
       </c>
@@ -1676,7 +1689,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43191</v>
       </c>
@@ -1702,7 +1715,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>53</v>
@@ -1724,7 +1737,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>47</v>
@@ -1746,7 +1759,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43221</v>
       </c>
@@ -1770,7 +1783,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>47</v>
@@ -1794,7 +1807,7 @@
         <v>43440</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43252</v>
       </c>
@@ -1814,7 +1827,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43282</v>
       </c>
@@ -1834,7 +1847,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43313</v>
       </c>
@@ -1860,7 +1873,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>47</v>
@@ -1882,7 +1895,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43344</v>
       </c>
@@ -1908,7 +1921,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43374</v>
       </c>
@@ -1934,7 +1947,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>47</v>
@@ -1956,7 +1969,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>64</v>
@@ -1976,7 +1989,7 @@
         <v>43354</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43405</v>
       </c>
@@ -1996,7 +2009,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43435</v>
       </c>
@@ -2022,7 +2035,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>65</v>
@@ -2042,7 +2055,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
         <v>67</v>
       </c>
@@ -2060,7 +2073,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43466</v>
       </c>
@@ -2086,7 +2099,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43497</v>
       </c>
@@ -2110,7 +2123,7 @@
         <v>43771</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>70</v>
@@ -2130,7 +2143,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>52</v>
@@ -2152,7 +2165,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43525</v>
       </c>
@@ -2176,7 +2189,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>73</v>
@@ -2198,7 +2211,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>74</v>
@@ -2222,7 +2235,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43556</v>
       </c>
@@ -2246,7 +2259,7 @@
         <v>43559</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>47</v>
@@ -2270,7 +2283,7 @@
         <v>43681</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43586</v>
       </c>
@@ -2296,7 +2309,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43617</v>
       </c>
@@ -2316,7 +2329,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43647</v>
       </c>
@@ -2340,7 +2353,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>74</v>
@@ -2364,7 +2377,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>43678</v>
       </c>
@@ -2384,7 +2397,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43709</v>
       </c>
@@ -2410,7 +2423,7 @@
         <v>43625</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>47</v>
@@ -2434,7 +2447,7 @@
         <v>43565</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>43739</v>
       </c>
@@ -2454,7 +2467,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>43770</v>
       </c>
@@ -2478,7 +2491,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>43800</v>
       </c>
@@ -2498,7 +2511,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="48" t="s">
         <v>83</v>
       </c>
@@ -2516,7 +2529,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>43831</v>
       </c>
@@ -2536,7 +2549,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>43862</v>
       </c>
@@ -2562,7 +2575,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>43891</v>
       </c>
@@ -2582,7 +2595,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>43922</v>
       </c>
@@ -2602,7 +2615,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>43952</v>
       </c>
@@ -2622,7 +2635,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>43983</v>
       </c>
@@ -2642,7 +2655,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44013</v>
       </c>
@@ -2668,7 +2681,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44044</v>
       </c>
@@ -2692,7 +2705,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>49</v>
@@ -2714,7 +2727,7 @@
         <v>43992</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44075</v>
       </c>
@@ -2734,7 +2747,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44105</v>
       </c>
@@ -2754,7 +2767,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44136</v>
       </c>
@@ -2774,7 +2787,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44166</v>
       </c>
@@ -2794,7 +2807,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
         <v>88</v>
       </c>
@@ -2812,7 +2825,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44197</v>
       </c>
@@ -2832,7 +2845,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44228</v>
       </c>
@@ -2852,7 +2865,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44256</v>
       </c>
@@ -2872,7 +2885,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44287</v>
       </c>
@@ -2892,7 +2905,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44317</v>
       </c>
@@ -2912,7 +2925,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44378</v>
       </c>
@@ -2932,7 +2945,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44409</v>
       </c>
@@ -2956,7 +2969,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44440</v>
       </c>
@@ -2976,7 +2989,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44470</v>
       </c>
@@ -3002,7 +3015,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44501</v>
       </c>
@@ -3022,7 +3035,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44531</v>
       </c>
@@ -3046,7 +3059,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="48" t="s">
         <v>92</v>
       </c>
@@ -3064,7 +3077,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44562</v>
       </c>
@@ -3084,7 +3097,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44593</v>
       </c>
@@ -3102,7 +3115,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44621</v>
       </c>
@@ -3124,7 +3137,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>49</v>
@@ -3148,7 +3161,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>44652</v>
       </c>
@@ -3168,7 +3181,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>44682</v>
       </c>
@@ -3188,7 +3201,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>44713</v>
       </c>
@@ -3214,7 +3227,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>44743</v>
       </c>
@@ -3240,7 +3253,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>44774</v>
       </c>
@@ -3266,7 +3279,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>44805</v>
       </c>
@@ -3292,7 +3305,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>44835</v>
       </c>
@@ -3318,7 +3331,7 @@
         <v>44861</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20" t="s">
         <v>47</v>
@@ -3340,7 +3353,7 @@
         <v>44841</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>44866</v>
       </c>
@@ -3360,7 +3373,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>44896</v>
       </c>
@@ -3380,7 +3393,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="48" t="s">
         <v>99</v>
       </c>
@@ -3398,7 +3411,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>44927</v>
       </c>
@@ -3424,7 +3437,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>44958</v>
       </c>
@@ -3450,29 +3463,35 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>44986</v>
       </c>
-      <c r="B96" s="20"/>
-      <c r="C96" s="13"/>
+      <c r="B96" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C96" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D96" s="39"/>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G96" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H96" s="39"/>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="20"/>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B97" s="20"/>
+      <c r="K96" s="20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="40"/>
+      <c r="B97" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
       <c r="E97" s="9"/>
@@ -3484,13 +3503,15 @@
       <c r="H97" s="39"/>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="20"/>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B98" s="20"/>
+      <c r="K97" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="40"/>
+      <c r="B98" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
       <c r="E98" s="9"/>
@@ -3502,15 +3523,19 @@
       <c r="H98" s="39"/>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="20"/>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B99" s="20"/>
+      <c r="K98" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="40"/>
+      <c r="B99" s="20" t="s">
+        <v>100</v>
+      </c>
       <c r="C99" s="13"/>
-      <c r="D99" s="39"/>
+      <c r="D99" s="39">
+        <v>2</v>
+      </c>
       <c r="E99" s="9"/>
       <c r="F99" s="20"/>
       <c r="G99" s="13" t="str">
@@ -3520,11 +3545,13 @@
       <c r="H99" s="39"/>
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
-      <c r="K99" s="20"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45108</v>
+        <v>45017</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3540,9 +3567,9 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45139</v>
+        <v>45047</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3558,9 +3585,9 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45170</v>
+        <v>45078</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3576,9 +3603,9 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>45200</v>
+        <v>45108</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3594,9 +3621,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45231</v>
+        <v>45139</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3612,9 +3639,9 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45261</v>
+        <v>45170</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3630,9 +3657,9 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45292</v>
+        <v>45200</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3648,9 +3675,9 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45323</v>
+        <v>45231</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3666,8 +3693,10 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="40"/>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="40">
+        <v>45261</v>
+      </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
@@ -3682,8 +3711,10 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="40"/>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="40">
+        <v>45292</v>
+      </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -3698,8 +3729,10 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="40"/>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="40">
+        <v>45323</v>
+      </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
@@ -3714,7 +3747,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3730,7 +3763,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3746,7 +3779,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3762,7 +3795,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3778,7 +3811,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3794,7 +3827,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3810,7 +3843,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3826,7 +3859,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3842,7 +3875,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3858,7 +3891,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3874,7 +3907,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3890,7 +3923,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3906,7 +3939,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3922,7 +3955,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3938,7 +3971,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3954,7 +3987,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3970,7 +4003,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3986,7 +4019,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -4002,7 +4035,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -4018,7 +4051,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -4034,7 +4067,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -4050,21 +4083,69 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="41"/>
-      <c r="B132" s="15"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="43"/>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="40"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="39"/>
       <c r="E132" s="9"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H132" s="43"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="39"/>
       <c r="I132" s="9"/>
-      <c r="J132" s="12"/>
-      <c r="K132" s="15"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="20"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="40"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="39"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="39"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="20"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134" s="40"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="39"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="39"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="41"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="43"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="43"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4081,10 +4162,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4107,28 +4188,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -4141,7 +4222,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4170,7 +4251,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>17.5</v>
       </c>
@@ -4194,17 +4275,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4225,7 +4306,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -4252,7 +4333,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -4278,7 +4359,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -4304,7 +4385,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -4330,7 +4411,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -4356,7 +4437,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -4382,7 +4463,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -4408,7 +4489,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -4434,7 +4515,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -4454,7 +4535,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -4474,7 +4555,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -4494,7 +4575,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -4515,7 +4596,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -4536,7 +4617,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -4557,7 +4638,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -4578,7 +4659,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -4599,7 +4680,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -4620,7 +4701,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -4641,7 +4722,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -4662,7 +4743,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -4683,7 +4764,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -4704,7 +4785,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -4725,7 +4806,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -4746,7 +4827,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -4767,7 +4848,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -4788,7 +4869,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -4809,7 +4890,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -4830,7 +4911,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -4851,7 +4932,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -4872,7 +4953,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -4893,7 +4974,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -4914,7 +4995,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -4923,7 +5004,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -4932,7 +5013,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -4941,7 +5022,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -4950,7 +5031,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -4959,7 +5040,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -4968,7 +5049,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -4977,7 +5058,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -4986,7 +5067,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -4995,7 +5076,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -5004,7 +5085,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -5013,7 +5094,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -5022,7 +5103,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -5031,7 +5112,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -5040,7 +5121,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -5049,7 +5130,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -5058,7 +5139,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -5067,7 +5148,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -5076,7 +5157,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -5085,7 +5166,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -5094,7 +5175,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -5103,7 +5184,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -5112,7 +5193,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5121,7 +5202,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5130,7 +5211,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5139,7 +5220,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5148,7 +5229,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5157,7 +5238,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5166,7 +5247,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5175,7 +5256,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
